--- a/resource/Automation Practice - Test Cases.xlsx
+++ b/resource/Automation Practice - Test Cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haider Ali Khan\eclipse-workspace\AutomationPractice - Haider Ali\resource\testCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haider Ali Khan\eclipse-workspace\AutomationPractice - Haider Ali\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E0F23D-E70F-480C-AC2F-9D06F47160CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46C8D3C-27E6-49FC-95AB-992D9B73634C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="245">
   <si>
     <t>Project name:</t>
   </si>
@@ -201,9 +201,6 @@
   </si>
   <si>
     <t>User lands on Automation Practice homepage and upon hovering the respective sub-menu opens</t>
-  </si>
-  <si>
-    <t>User should lands on Automation Practice homepage and upon hovering the respective sub-menu should open</t>
   </si>
   <si>
     <t>Verify that after hovering on the navigation bar's "Women" heading shows the sub-menu:
@@ -240,12 +237,6 @@
   </si>
   <si>
     <t>Dress Link Functionality Check</t>
-  </si>
-  <si>
-    <t>User should lands on Automation Practice homepage and upon hovering the respective sub-menu should open which should have the options:
-1. Casual Dresses
-2. Winter Dresses
-3. Summer Dresses</t>
   </si>
   <si>
     <t>User lands on Automation Practice homepage and upon hovering the sub-menu opens which has the options:
@@ -1033,6 +1024,18 @@
   </si>
   <si>
     <t>TS_CO_02_03</t>
+  </si>
+  <si>
+    <t>User should lands on Automation Practice homepage and upon hovering the respective sub-menu should open that should have a heading "DRESSES"</t>
+  </si>
+  <si>
+    <t>User lands on Automation Practice homepage and upon hovering the respective sub-menu opens that should have a heading "DRESSES"</t>
+  </si>
+  <si>
+    <t>User should land on Automation Practice homepage and upon hovering the respective sub-menu should open which should have the options:
+1. Casual Dresses
+2. Winter Dresses
+3. Summer Dresses</t>
   </si>
 </sst>
 </file>
@@ -1408,7 +1411,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1462,7 +1465,6 @@
     <xf numFmtId="0" fontId="10" fillId="12" borderId="7" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1473,6 +1475,16 @@
     <xf numFmtId="0" fontId="15" fillId="12" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1480,12 +1492,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1497,10 +1503,6 @@
     <xf numFmtId="0" fontId="17" fillId="14" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27" customBuiltin="1"/>
@@ -1788,16 +1790,16 @@
     </row>
     <row r="7" spans="1:8" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="30"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
     </row>
     <row r="9" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
@@ -2924,8 +2926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7589F4A-BE61-44D0-9E66-F3F49C36B2A2}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2949,26 +2951,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="32"/>
+      <c r="A1" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="28"/>
     </row>
     <row r="2" spans="1:18" ht="39" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
@@ -3034,13 +3036,13 @@
         <v>30</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>48</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>49</v>
@@ -3057,11 +3059,11 @@
       <c r="J3" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="27" t="s">
         <v>50</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M3" s="22" t="s">
         <v>52</v>
@@ -3072,9 +3074,6 @@
       <c r="O3" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
     </row>
     <row r="4" spans="1:18" s="17" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
@@ -3084,16 +3083,16 @@
         <v>30</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G4" s="22" t="s">
         <v>32</v>
@@ -3111,20 +3110,17 @@
         <v>50</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M4" s="22" t="s">
         <v>56</v>
       </c>
       <c r="N4" s="22" t="s">
-        <v>69</v>
+        <v>244</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
+        <v>68</v>
+      </c>
     </row>
     <row r="5" spans="1:18" s="17" customFormat="1" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
@@ -3134,16 +3130,16 @@
         <v>30</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G5" s="22" t="s">
         <v>32</v>
@@ -3161,254 +3157,251 @@
         <v>50</v>
       </c>
       <c r="L5" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="101.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M7" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="112.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="N5" s="22" t="s">
+      <c r="O8" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-    </row>
-    <row r="6" spans="1:18" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+    </row>
+    <row r="9" spans="1:18" ht="123.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="D6" s="26" t="s">
+      <c r="C9" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="26" t="s">
+      <c r="E9" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="26" t="s">
+      <c r="I9" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="K9" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="M6" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="O6" s="26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+      <c r="L9" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="101.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="26" t="s">
+      <c r="C10" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H10" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="26" t="s">
+      <c r="I10" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K10" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="M7" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="N7" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="O7" s="26" t="s">
+      <c r="L10" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="M10" s="25" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="112.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="M8" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="N8" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="O8" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="123.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="F9" s="26" t="s">
+      <c r="N10" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="M9" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="N9" s="26" t="s">
+      <c r="O10" s="25" t="s">
         <v>66</v>
-      </c>
-      <c r="O9" s="26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="M10" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="N10" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="O10" s="26" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3462,27 +3455,27 @@
     <col min="18" max="18" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="37" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="36"/>
+    <row r="1" spans="1:18" s="30" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="29"/>
     </row>
     <row r="2" spans="1:18" ht="39" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
@@ -3545,19 +3538,19 @@
         <v>31</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>96</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>98</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>32</v>
@@ -3575,16 +3568,16 @@
         <v>50</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M3" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3" s="22" t="s">
         <v>99</v>
-      </c>
-      <c r="N3" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="17" customFormat="1" ht="90" x14ac:dyDescent="0.2">
@@ -3592,19 +3585,19 @@
         <v>31</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G4" s="22" t="s">
         <v>32</v>
@@ -3616,22 +3609,22 @@
         <v>35</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K4" s="22" t="s">
         <v>50</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="M4" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="O4" s="25" t="s">
         <v>103</v>
-      </c>
-      <c r="N4" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="O4" s="26" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="17" customFormat="1" ht="90" x14ac:dyDescent="0.2">
@@ -3639,19 +3632,19 @@
         <v>31</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G5" s="22" t="s">
         <v>32</v>
@@ -3663,22 +3656,22 @@
         <v>35</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K5" s="22" t="s">
         <v>50</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="M5" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="N5" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="O5" s="26" t="s">
-        <v>108</v>
+        <v>160</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="17" customFormat="1" ht="101.25" x14ac:dyDescent="0.2">
@@ -3686,19 +3679,19 @@
         <v>31</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G6" s="22" t="s">
         <v>32</v>
@@ -3710,22 +3703,22 @@
         <v>34</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K6" s="22" t="s">
         <v>50</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="M6" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="N6" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="O6" s="26" t="s">
-        <v>127</v>
+        <v>161</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="112.5" x14ac:dyDescent="0.2">
@@ -3733,19 +3726,19 @@
         <v>31</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G7" s="22" t="s">
         <v>32</v>
@@ -3757,22 +3750,22 @@
         <v>35</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K7" s="22" t="s">
         <v>50</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="M7" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="N7" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="O7" s="26" t="s">
-        <v>117</v>
+        <v>162</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="168.75" x14ac:dyDescent="0.2">
@@ -3780,19 +3773,19 @@
         <v>31</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G8" s="22" t="s">
         <v>32</v>
@@ -3804,22 +3797,22 @@
         <v>35</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K8" s="22" t="s">
         <v>50</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="M8" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="O8" s="25" t="s">
         <v>114</v>
-      </c>
-      <c r="N8" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="O8" s="26" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="123.75" x14ac:dyDescent="0.2">
@@ -3827,19 +3820,19 @@
         <v>31</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G9" s="22" t="s">
         <v>32</v>
@@ -3851,22 +3844,22 @@
         <v>35</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K9" s="22" t="s">
         <v>50</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="M9" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="N9" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="O9" s="26" t="s">
-        <v>115</v>
+        <v>164</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="N9" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="O9" s="25" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="112.5" x14ac:dyDescent="0.2">
@@ -3874,22 +3867,22 @@
         <v>31</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>33</v>
@@ -3898,22 +3891,22 @@
         <v>34</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K10" s="22" t="s">
         <v>50</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="M10" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="N10" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="O10" s="26" t="s">
-        <v>130</v>
+        <v>165</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="N10" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="O10" s="25" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="112.5" x14ac:dyDescent="0.2">
@@ -3921,22 +3914,22 @@
         <v>31</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F11" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="22" t="s">
         <v>122</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>124</v>
       </c>
       <c r="H11" s="22" t="s">
         <v>33</v>
@@ -3945,22 +3938,22 @@
         <v>34</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K11" s="22" t="s">
         <v>50</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="M11" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="N11" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="O11" s="26" t="s">
-        <v>132</v>
+        <v>166</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="N11" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="112.5" x14ac:dyDescent="0.2">
@@ -3968,22 +3961,22 @@
         <v>31</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H12" s="22" t="s">
         <v>33</v>
@@ -3992,22 +3985,22 @@
         <v>35</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K12" s="22" t="s">
         <v>50</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="M12" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="N12" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="O12" s="26" t="s">
-        <v>134</v>
+        <v>167</v>
+      </c>
+      <c r="M12" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="N12" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12" s="25" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="112.5" x14ac:dyDescent="0.2">
@@ -4015,22 +4008,22 @@
         <v>31</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>33</v>
@@ -4039,22 +4032,22 @@
         <v>35</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K13" s="22" t="s">
         <v>50</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="M13" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="N13" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="O13" s="26" t="s">
-        <v>134</v>
+        <v>167</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="N13" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" s="25" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="112.5" x14ac:dyDescent="0.2">
@@ -4062,22 +4055,22 @@
         <v>31</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H14" s="22" t="s">
         <v>33</v>
@@ -4086,22 +4079,22 @@
         <v>35</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K14" s="22" t="s">
         <v>50</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="M14" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="N14" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="O14" s="26" t="s">
-        <v>134</v>
+        <v>167</v>
+      </c>
+      <c r="M14" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="N14" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" s="25" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="112.5" x14ac:dyDescent="0.2">
@@ -4109,19 +4102,19 @@
         <v>31</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G15" s="22" t="s">
         <v>32</v>
@@ -4133,22 +4126,22 @@
         <v>35</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K15" s="22" t="s">
         <v>50</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="M15" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="N15" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="O15" s="26" t="s">
-        <v>136</v>
+        <v>168</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="N15" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="O15" s="25" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="101.25" x14ac:dyDescent="0.2">
@@ -4156,19 +4149,19 @@
         <v>31</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G16" s="22" t="s">
         <v>32</v>
@@ -4180,22 +4173,22 @@
         <v>35</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K16" s="22" t="s">
         <v>50</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="M16" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="M16" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="N16" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="O16" s="25" t="s">
         <v>138</v>
-      </c>
-      <c r="N16" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="O16" s="26" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="101.25" x14ac:dyDescent="0.2">
@@ -4203,19 +4196,19 @@
         <v>31</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G17" s="22" t="s">
         <v>32</v>
@@ -4227,352 +4220,352 @@
         <v>35</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="K17" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" s="27" t="s">
         <v>50</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="M17" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="M17" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="N17" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="O17" s="25" t="s">
         <v>138</v>
-      </c>
-      <c r="N17" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="O17" s="26" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="225" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>96</v>
+      <c r="B18" s="25" t="s">
+        <v>94</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>106</v>
+        <v>185</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="G18" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="25" t="s">
         <v>33</v>
       </c>
       <c r="I18" s="22" t="s">
         <v>35</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="K18" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="L18" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="M18" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="L18" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="M18" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="N18" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="O18" s="25" t="s">
         <v>146</v>
-      </c>
-      <c r="N18" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="O18" s="26" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="225" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>96</v>
+        <v>79</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>94</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>106</v>
+        <v>185</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="G19" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="25" t="s">
         <v>33</v>
       </c>
       <c r="I19" s="22" t="s">
         <v>35</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="K19" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="L19" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="M19" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="L19" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="M19" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="N19" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="O19" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="N19" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="O19" s="26" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="20" spans="1:16" ht="112.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F20" s="26" t="s">
+      <c r="B20" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="M20" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="N20" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="G20" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="K20" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="L20" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="M20" s="26" t="s">
+      <c r="O20" s="25" t="s">
         <v>142</v>
-      </c>
-      <c r="N20" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="O20" s="26" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="135" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="G21" s="26" t="s">
+      <c r="B21" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="25" t="s">
         <v>33</v>
       </c>
       <c r="I21" s="22" t="s">
         <v>34</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="K21" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="K21" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="L21" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="M21" s="26" t="s">
+      <c r="L21" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="M21" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="N21" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="O21" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="N21" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="O21" s="26" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="22" spans="1:16" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="D22" s="26" t="s">
+      <c r="B22" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="F22" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="G22" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="L22" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="M22" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="N22" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="O22" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="P22" s="17"/>
+    </row>
+    <row r="23" spans="1:16" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="G23" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="H23" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I23" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J22" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="K22" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="L22" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="M22" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="N22" s="26" t="s">
+      <c r="J23" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="K23" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="L23" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="M23" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="N23" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="O23" s="25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="101.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="O22" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="P22" s="17"/>
-    </row>
-    <row r="23" spans="1:16" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="G23" s="26" t="s">
+      <c r="E24" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="G24" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="H24" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="26" t="s">
+      <c r="I24" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="K23" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="L23" s="26" t="s">
+      <c r="J24" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="K24" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="M23" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="N23" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="O23" s="26" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="E24" s="26" t="s">
+      <c r="L24" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="M24" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="G24" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="K24" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="L24" s="26" t="s">
+      <c r="N24" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="M24" s="26" t="s">
+      <c r="O24" s="25" t="s">
         <v>232</v>
-      </c>
-      <c r="N24" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="O24" s="26" t="s">
-        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -4627,26 +4620,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="32"/>
+      <c r="A1" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="28"/>
     </row>
     <row r="2" spans="1:18" ht="26.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -4705,298 +4698,298 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+    </row>
+    <row r="4" spans="1:18" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="F4" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="K4" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+    </row>
+    <row r="5" spans="1:18" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="F3" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="24" t="s">
+      <c r="F5" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H5" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I5" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" s="24" t="s">
+      <c r="J5" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="M3" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="O3" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-    </row>
-    <row r="4" spans="1:18" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="L5" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+    </row>
+    <row r="6" spans="1:18" ht="236.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="D4" s="24" t="s">
+      <c r="C6" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="24" t="s">
+      <c r="K6" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+    </row>
+    <row r="7" spans="1:18" ht="243" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H7" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I7" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+    </row>
+    <row r="8" spans="1:18" ht="243" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="K4" s="24" t="s">
+      <c r="J8" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="N4" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-    </row>
-    <row r="5" spans="1:18" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-    </row>
-    <row r="6" spans="1:18" ht="236.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="F6" s="24" t="s">
+      <c r="L8" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="24" t="s">
+      <c r="N8" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="O8" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="N6" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="O6" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-    </row>
-    <row r="7" spans="1:18" ht="243" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="N7" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="O7" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-    </row>
-    <row r="8" spans="1:18" ht="243" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="M8" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="N8" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="O8" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
